--- a/InvoiceLogTemplate_DD_28062024.xlsx
+++ b/InvoiceLogTemplate_DD_28062024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.demosthenous\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC94FE6A-39BD-42F3-BDEA-FF819886F2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA89AB98-45EC-49FF-98FB-F69BE6EA7A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66135" yWindow="0" windowWidth="14610" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceLogTemplate" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B6">
         <v>0</v>
